--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-754372.7651461373</v>
+        <v>-756260.3466625395</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.2221924921447</v>
+        <v>64.17446872639465</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>89.68453558236848</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>20.92041677519556</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>348.2979247889347</v>
+        <v>69.21008345689161</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,16 +1057,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>37.83808333974897</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>107.0688699336412</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>262.8957025003223</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>354.0776966647664</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>183.1796758466998</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>43.39437547247061</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.8084418793349</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>41.88171928086616</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>45.21952718910681</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>116.3554328443596</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002178</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>55.22013099942582</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002171</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002175</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>78.67531269948049</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897894</v>
+        <v>8.815482471234668</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571481</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523562</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224537</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1583.378275356799</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C2" t="n">
-        <v>1214.415758416387</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D2" t="n">
-        <v>1214.415758416387</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="E2" t="n">
-        <v>828.6275058181432</v>
+        <v>863.9242055694017</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.378275356799</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1583.378275356799</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.1897464970881</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>359.1897464970881</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>359.1897464970881</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>359.1897464970881</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.1897464970881</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1167.455337753612</v>
+        <v>997.2466063457011</v>
       </c>
       <c r="C5" t="n">
-        <v>798.4928208132008</v>
+        <v>997.2466063457011</v>
       </c>
       <c r="D5" t="n">
-        <v>798.4928208132008</v>
+        <v>997.2466063457011</v>
       </c>
       <c r="E5" t="n">
-        <v>412.7045682149565</v>
+        <v>611.4583537474568</v>
       </c>
       <c r="F5" t="n">
-        <v>405.759067465753</v>
+        <v>604.5128529982534</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014692</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.455337753612</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.455337753612</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>590.5616913897119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>590.5616913897119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>590.5616913897119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>590.5616913897119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>590.5616913897119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>590.5616913897119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>590.5616913897119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2014.892857925727</v>
+        <v>976.0491016702019</v>
       </c>
       <c r="C8" t="n">
-        <v>2014.892857925727</v>
+        <v>976.0491016702019</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>976.0491016702019</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>976.0491016702019</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>565.0631968805944</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.892857925727</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.892857925727</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5030,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>713.5778697504954</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.886294955175</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1090.100879744681</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>1344.008464622283</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>1116.018913724265</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>895.2263345807352</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>557.490562163493</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5543792355861</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>238.4377398232504</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>238.4377398232504</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>238.4377398232504</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>739.1390269937327</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5513,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405892</v>
+        <v>289.9398668627124</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405892</v>
+        <v>289.9398668627124</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405892</v>
+        <v>289.9398668627124</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>289.9398668627124</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>289.9398668627124</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,10 +5671,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799363</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655739</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286133</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305961</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405892</v>
+        <v>471.5883316929522</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402494</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609666</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550797</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181191</v>
+        <v>754.8946022306076</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201018</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402494</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>471.588331692952</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6154,13 +6154,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609662</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550793</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181187</v>
+        <v>920.3704617344995</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201011</v>
+        <v>692.3809108364821</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>471.588331692952</v>
       </c>
     </row>
     <row r="26">
@@ -6218,22 +6218,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6245,22 +6245,22 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609661</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550792</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201012</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6470,40 +6470,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542198</v>
+        <v>439.5324299542173</v>
       </c>
       <c r="C31" t="n">
-        <v>360.0624171264618</v>
+        <v>439.5324299542173</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264618</v>
+        <v>345.1766558232523</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264618</v>
+        <v>253.0244275222299</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>161.8953453056896</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>161.8953453056896</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6622,49 +6622,49 @@
         <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818942</v>
+        <v>902.6804289818923</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652478</v>
+        <v>730.4517433652456</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030886</v>
+        <v>565.4200295030863</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,7 +6892,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7081,16 +7081,16 @@
         <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,7 +7129,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
@@ -7151,16 +7151,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229671</v>
@@ -7795,22 +7795,22 @@
         <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747117</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>14.74113413690347</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>243.1286228641204</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>26.68512658404273</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518771</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>124.6118491825114</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.365126162988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>109.3542225446775</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.057676551877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>112.026690099202</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,13 +24415,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518776</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.36825177059016</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965517</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801199</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437406</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>84.89508926774445</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26323,13 +26323,13 @@
         <v>195514.5298688544</v>
       </c>
       <c r="F2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688543</v>
       </c>
       <c r="G2" t="n">
         <v>195514.5298688544</v>
       </c>
       <c r="H2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688545</v>
       </c>
       <c r="I2" t="n">
         <v>195514.5298688544</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.6053028456</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26430,25 +26430,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.2301010673</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
         <v>44593.3948281912</v>
@@ -26457,7 +26457,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,28 +26479,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-633199.3825984075</v>
       </c>
       <c r="C6" t="n">
-        <v>-43231.50338386299</v>
+        <v>-43231.50338386305</v>
       </c>
       <c r="D6" t="n">
-        <v>-43231.50338386302</v>
+        <v>-43231.50338386308</v>
       </c>
       <c r="E6" t="n">
-        <v>-443807.4401436289</v>
+        <v>-443904.8992696013</v>
       </c>
       <c r="F6" t="n">
-        <v>81352.59633326711</v>
+        <v>81255.13720729481</v>
       </c>
       <c r="G6" t="n">
-        <v>81352.59633326708</v>
+        <v>81255.13720729493</v>
       </c>
       <c r="H6" t="n">
-        <v>81352.59633326704</v>
+        <v>81255.1372072948</v>
       </c>
       <c r="I6" t="n">
-        <v>81352.59633326709</v>
+        <v>81255.13720729511</v>
       </c>
       <c r="J6" t="n">
-        <v>-95070.62285932596</v>
+        <v>-95168.08198529808</v>
       </c>
       <c r="K6" t="n">
-        <v>22281.02473849936</v>
+        <v>22262.53100056526</v>
       </c>
       <c r="L6" t="n">
-        <v>52609.03501698765</v>
+        <v>52609.03501698753</v>
       </c>
       <c r="M6" t="n">
-        <v>-71849.0734159826</v>
+        <v>-71849.07341598271</v>
       </c>
       <c r="N6" t="n">
         <v>62951.94181785444</v>
       </c>
       <c r="O6" t="n">
-        <v>62951.94181785447</v>
+        <v>62951.9418178545</v>
       </c>
       <c r="P6" t="n">
-        <v>18789.33651500869</v>
+        <v>18789.33651500878</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26738,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108348</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.6538532495668</v>
+        <v>342.7015770153168</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>55.73651244056276</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>231.2172265486324</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>65.48624523186032</v>
+        <v>344.5740865639034</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>39.59632204651668</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.78733912036068</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>59.7064733560286</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941227</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043193</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
